--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/71_Şırnak_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/71_Şırnak_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA22E1C-0CEB-4ACA-983D-A402BF336ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6711820E-60EF-4E6D-9103-45D4F2B64CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{39ECECCC-A59D-456C-8C97-2EB0738E0CA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{2228E289-A74A-43AB-8EEE-EE99C5915FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -800,14 +800,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{ED690111-CE60-4382-B37A-7FC2EFFC00CE}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A6996B5E-C950-4510-ACD0-6E219D4C3BB6}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{D31F70DC-FFF9-4A82-803D-10B744955A64}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{ED5AE665-B074-4751-BFBB-801FF88E21E8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{28786EEE-3D58-4001-B34D-CC1F3031A186}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{126456ED-B0A2-45D7-8840-D4D69BB80798}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{997A6D42-348C-45C2-B3AD-A1B9D6B4CE8C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{434BE877-FA2F-4764-9AF4-6C1196272D9D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{96B3C3C8-77F6-4533-B95C-B1A17D4CF155}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C0C95D82-5176-4E93-AF7C-0803BC0BA1C2}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{A01C3FD4-0B11-426B-B5C3-C705BEFFA333}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{64FC036B-366B-4CFA-9E21-526E047CA4B5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F278CB85-4EA4-4D31-A519-A1308F26CF1E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F243D0A2-CC11-4B4F-B003-888AFE9532FA}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1AFD8B59-7C36-41BE-B836-11D279E3CFEB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{193FEA87-2861-4B21-BD8E-C60DF2A0A920}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF5A03-7E39-40A0-9E72-E5E228EBC9E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277B516A-B239-4600-B9DD-66D0C5311C95}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5D7F40-A532-4B6C-B989-1062562C80BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27434F06-8D01-41F7-91A4-7C7206C9DA99}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3753,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FA926-8132-464C-807E-4892A92F9336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7166CCC3-174B-4D7A-9488-A870B8B3C8D5}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5048,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955911FF-5735-4414-AABB-903F4B6B8A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFB81D0-95C7-43BA-A7D4-9E6C0BAB0789}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6343,7 +6343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F71CD0F-2116-4D0C-87EC-80C7FAC0D8CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E65D0C2-1498-4FA3-98F7-9BBC8E24DD52}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7616,7 +7616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AD0A4-0FFD-453C-832C-CEE964D0478F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71A076-D1A4-4D60-98D0-B2855EA704D9}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
